--- a/sqm_stock.xlsx
+++ b/sqm_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josechacon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A96DC8-D794-CF46-85E8-D79FCC085FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5C0AE-1949-EC4A-A1C5-3D024421D7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17980" xr2:uid="{B2D0B329-7E4C-3741-B223-D55A739DF02D}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17980" activeTab="1" xr2:uid="{B2D0B329-7E4C-3741-B223-D55A739DF02D}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +62,14 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43A4698-F3F3-8D4A-85B8-35CBF19222A9}">
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +547,7 @@
         <v>2.8359299999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>34700</v>
       </c>
@@ -546,7 +555,7 @@
         <v>2.8724440000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>34731</v>
       </c>
@@ -554,15 +563,16 @@
         <v>3.0793569999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>34759</v>
       </c>
       <c r="B19" s="2">
         <v>2.9211299999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>34790</v>
       </c>
@@ -570,7 +580,7 @@
         <v>3.395813</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>34820</v>
       </c>
@@ -578,7 +588,7 @@
         <v>4.016553</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>34851</v>
       </c>
@@ -586,7 +596,7 @@
         <v>4.6007790000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>34881</v>
       </c>
@@ -594,7 +604,7 @@
         <v>4.3816940000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>34912</v>
       </c>
@@ -602,7 +612,7 @@
         <v>4.5277510000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>34943</v>
       </c>
@@ -610,7 +620,7 @@
         <v>4.2599809999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>34973</v>
       </c>
@@ -618,7 +628,7 @@
         <v>4.2234660000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>35004</v>
       </c>
@@ -626,7 +636,7 @@
         <v>4.2843229999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>35034</v>
       </c>
@@ -634,7 +644,7 @@
         <v>4.5764360000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>35065</v>
       </c>
@@ -642,7 +652,7 @@
         <v>4.8320350000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>35096</v>
       </c>
@@ -650,7 +660,7 @@
         <v>4.9415769999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>35125</v>
       </c>
@@ -658,7 +668,7 @@
         <v>5.0876340000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>35156</v>
       </c>
@@ -3331,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18BF653-A38C-C04E-B354-E03160C87DD3}">
   <dimension ref="A1:B7619"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7585" workbookViewId="0">
+      <selection activeCell="C7606" sqref="C7606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
